--- a/homework2/DataForHomework2.xlsx
+++ b/homework2/DataForHomework2.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600"/>
+    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи на выборку данных" sheetId="1" r:id="rId1"/>
     <sheet name="Разбито по таблицам" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задачи на выборку данных'!$B$5:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>Общий список</t>
   </si>
@@ -165,13 +169,28 @@
   </si>
   <si>
     <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Чему будет равна выборка:</t>
+  </si>
+  <si>
+    <t>1. SELECT ФИО, Д/р, Адрес FROM Общий список</t>
+  </si>
+  <si>
+    <t>2. SELECT ФИО, Статус FROM Общий список WHERE Адрес = «Можга»</t>
+  </si>
+  <si>
+    <t>3. SELECT ФИО FROM Общий список WHERE Адрес = «Москва» AND Группа = «Работа»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,8 +208,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +250,20 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,11 +286,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -259,6 +358,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,10 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -516,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1">
+    <row r="6" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -539,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1">
+    <row r="7" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -562,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+    <row r="8" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -585,7 +722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
+    <row r="9" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -608,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
+    <row r="10" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -631,7 +768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
+    <row r="11" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -654,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+    <row r="12" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
@@ -677,7 +814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1">
+    <row r="13" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -700,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1">
+    <row r="14" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -746,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1">
+    <row r="16" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -769,7 +906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1">
+    <row r="17" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
@@ -792,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1">
+    <row r="18" spans="2:8" ht="15.75" hidden="1" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1798,6 +1935,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="B5:H18">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Москва"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Работа"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3180,4 +3329,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>32916</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>32916</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>37152</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7">
+        <v>30429</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30430</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7">
+        <v>35936</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9">
+        <v>39276</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <v>39276</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>31841</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10">
+        <v>32736</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="9">
+        <v>35438</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10">
+        <v>35438</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9">
+        <v>35402</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/homework2/DataForHomework2.xlsx
+++ b/homework2/DataForHomework2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Задачи на выборку данных" sheetId="1" r:id="rId1"/>
     <sheet name="Разбито по таблицам" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="Выборки из общего списка" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задачи на выборку данных'!$B$5:$H$18</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Общий список</t>
   </si>
@@ -183,7 +183,7 @@
     <t>3. SELECT ФИО FROM Общий список WHERE Адрес = «Москва» AND Группа = «Работа»</t>
   </si>
   <si>
-    <t xml:space="preserve">4. </t>
+    <t>4. SELECT Д/р FROM Общий список WHERE Адрес = «Москва» OR Группа = «Работа»</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,7 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -602,11 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -653,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -676,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -699,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="8" spans="2:8" ht="15.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -722,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -745,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -768,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -791,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
@@ -814,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -837,7 +835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -883,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -906,7 +904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" spans="2:8" ht="15.75" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
@@ -929,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="2:8" ht="15.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1935,18 +1933,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B5:H18">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Москва"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Работа"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:H18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3333,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3363,14 +3350,14 @@
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3444,7 +3431,7 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="13"/>
@@ -3476,8 +3463,8 @@
       <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -3490,6 +3477,9 @@
       <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -3501,9 +3491,6 @@
       <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -3515,6 +3502,15 @@
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -3537,6 +3533,9 @@
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
@@ -3548,8 +3547,11 @@
       <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="E16" s="7">
+        <v>30429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3559,9 +3561,38 @@
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E17" s="4">
+        <v>30430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="10">
+        <v>32736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="4">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="7">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" s="10">
+        <v>32736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="9">
+        <v>35402</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="E13:K13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:J2"/>

--- a/homework2/DataForHomework2.xlsx
+++ b/homework2/DataForHomework2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600" activeTab="2"/>
+    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи на выборку данных" sheetId="1" r:id="rId1"/>
     <sheet name="Разбито по таблицам" sheetId="2" r:id="rId2"/>
     <sheet name="Выборки из общего списка" sheetId="3" r:id="rId3"/>
+    <sheet name="Результаты Join'ов" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задачи на выборку данных'!$B$5:$H$18</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="61">
   <si>
     <t>Общий список</t>
   </si>
@@ -184,13 +185,31 @@
   </si>
   <si>
     <t>4. SELECT Д/р FROM Общий список WHERE Адрес = «Москва» OR Группа = «Работа»</t>
+  </si>
+  <si>
+    <t>Что будет результатом следующих JOIN’ов:</t>
+  </si>
+  <si>
+    <t>1. INNER JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>2. LEFT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3. RIGHT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>4. FULL JOIN Люди, Адреса ON id = Чей адрес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +243,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF2C2D30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF2C2D30"/>
       <name val="Arial"/>
@@ -336,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,10 +391,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,21 +418,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1943,22 +1980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="4.375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="4.375" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="26" width="8.375" customWidth="1"/>
   </cols>
@@ -3322,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3336,28 +3375,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3431,16 +3470,16 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -3502,15 +3541,15 @@
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -3601,4 +3640,1042 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>35936</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7">
+        <v>35936</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43972</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>2</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <v>35936</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="8">
+        <v>6</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="5">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="5">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="8">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6">
+        <v>2</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="7">
+        <v>35936</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="8">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="8">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="5">
+        <v>7</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="8">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="5">
+        <v>9</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="8">
+        <v>10</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43972</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A39:D39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/homework2/DataForHomework2.xlsx
+++ b/homework2/DataForHomework2.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="555" windowWidth="18855" windowHeight="6600" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи на выборку данных" sheetId="1" r:id="rId1"/>
     <sheet name="Разбито по таблицам" sheetId="2" r:id="rId2"/>
-    <sheet name="Выборки из общего списка" sheetId="3" r:id="rId3"/>
+    <sheet name="Выборки из &quot;общего списка&quot;" sheetId="3" r:id="rId3"/>
     <sheet name="Результаты Join'ов" sheetId="4" r:id="rId4"/>
+    <sheet name="Доп. задание" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задачи на выборку данных'!$B$5:$H$18</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="63">
   <si>
     <t>Общий список</t>
   </si>
@@ -203,6 +204,12 @@
   </si>
   <si>
     <t>4. FULL JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>Что будет результатом выборки:</t>
+  </si>
+  <si>
+    <t>SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей Адрес</t>
   </si>
 </sst>
 </file>
@@ -290,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,11 +366,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -421,16 +460,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1981,7 +2032,7 @@
   <dimension ref="B1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+      <selection activeCell="L13" sqref="L13:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1994,7 +2045,7 @@
     <col min="6" max="6" width="4.375" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="4.375" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
@@ -3362,41 +3413,41 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3470,16 +3521,16 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -3541,15 +3592,15 @@
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -3646,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54:G54"/>
     </sheetView>
   </sheetViews>
@@ -3660,22 +3711,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3839,12 +3890,12 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
@@ -4020,23 +4071,23 @@
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="E21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -4200,16 +4251,16 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="A32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="5">
@@ -4223,16 +4274,16 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="28" t="s">
+      <c r="A33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="8">
@@ -4246,16 +4297,16 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="28" t="s">
+      <c r="A34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="5">
@@ -4269,16 +4320,16 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="A35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="8">
@@ -4292,16 +4343,16 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="28" t="s">
+      <c r="A36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E36" s="5">
@@ -4315,16 +4366,16 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="A37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="8">
@@ -4338,12 +4389,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
@@ -4507,16 +4558,16 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="A48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="5">
@@ -4530,16 +4581,16 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="28" t="s">
+      <c r="A49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="8">
@@ -4553,16 +4604,16 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="28" t="s">
+      <c r="A50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E50" s="5">
@@ -4576,16 +4627,16 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="28" t="s">
+      <c r="A51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="8">
@@ -4599,16 +4650,16 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="28" t="s">
+      <c r="A52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E52" s="5">
@@ -4622,16 +4673,16 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="28" t="s">
+      <c r="A53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E53" s="8">
@@ -4657,13 +4708,13 @@
       <c r="D54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="28" t="s">
+      <c r="E54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4678,4 +4729,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>